--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Tgfa</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Tgfa</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6079639999999999</v>
+        <v>1.317799333333333</v>
       </c>
       <c r="H2">
-        <v>1.823892</v>
+        <v>3.953398</v>
       </c>
       <c r="I2">
-        <v>0.6924052427747277</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7715093163997314</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>0.7362792606026667</v>
+        <v>0.8695020100575555</v>
       </c>
       <c r="R2">
-        <v>6.626513345424</v>
+        <v>7.825518090518</v>
       </c>
       <c r="S2">
-        <v>0.01021030856187306</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="T2">
-        <v>0.01233114569234519</v>
+        <v>0.008484678519943686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6079639999999999</v>
+        <v>1.317799333333333</v>
       </c>
       <c r="H3">
-        <v>1.823892</v>
+        <v>3.953398</v>
       </c>
       <c r="I3">
-        <v>0.6924052427747277</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7715093163997314</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>37.12237870893066</v>
+        <v>80.46503726269377</v>
       </c>
       <c r="R3">
-        <v>334.101408380376</v>
+        <v>724.185335364244</v>
       </c>
       <c r="S3">
-        <v>0.5147923640530644</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="T3">
-        <v>0.6217226055390254</v>
+        <v>0.7851850431306702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.317799333333333</v>
+      </c>
+      <c r="H4">
+        <v>3.953398</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.6079639999999999</v>
-      </c>
-      <c r="H4">
-        <v>1.823892</v>
-      </c>
-      <c r="I4">
-        <v>0.6924052427747277</v>
-      </c>
-      <c r="J4">
-        <v>0.7715093163997314</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>0.080420261992</v>
+        <v>0.2060361687008889</v>
       </c>
       <c r="R4">
-        <v>0.7237823579279999</v>
+        <v>1.854325518308</v>
       </c>
       <c r="S4">
-        <v>0.001115223168031223</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="T4">
-        <v>0.001346872063771302</v>
+        <v>0.002010519394650058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6079639999999999</v>
+        <v>1.317799333333333</v>
       </c>
       <c r="H5">
-        <v>1.823892</v>
+        <v>3.953398</v>
       </c>
       <c r="I5">
-        <v>0.6924052427747277</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7715093163997314</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>11.592916544664</v>
+        <v>31.12158327088033</v>
       </c>
       <c r="R5">
-        <v>69.55749926798399</v>
+        <v>186.729499625282</v>
       </c>
       <c r="S5">
-        <v>0.1607640760601834</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="T5">
-        <v>0.1294381543894442</v>
+        <v>0.2024581319964196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,371 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.317799333333333</v>
+      </c>
+      <c r="H6">
+        <v>3.953398</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.6079639999999999</v>
-      </c>
-      <c r="H6">
-        <v>1.823892</v>
-      </c>
-      <c r="I6">
-        <v>0.6924052427747277</v>
-      </c>
-      <c r="J6">
-        <v>0.7715093163997314</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>0.398290591608</v>
+        <v>0.1907778094866667</v>
       </c>
       <c r="R6">
-        <v>3.584615324472</v>
+        <v>1.71700028538</v>
       </c>
       <c r="S6">
-        <v>0.005523270931575552</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="T6">
-        <v>0.006670538715145248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.2700825</v>
-      </c>
-      <c r="H7">
-        <v>0.540165</v>
-      </c>
-      <c r="I7">
-        <v>0.3075947572252722</v>
-      </c>
-      <c r="J7">
-        <v>0.2284906836002685</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.211057333333333</v>
-      </c>
-      <c r="N7">
-        <v>3.633172</v>
-      </c>
-      <c r="O7">
-        <v>0.0147461456544675</v>
-      </c>
-      <c r="P7">
-        <v>0.01598314554371009</v>
-      </c>
-      <c r="Q7">
-        <v>0.32708539223</v>
-      </c>
-      <c r="R7">
-        <v>1.96251235338</v>
-      </c>
-      <c r="S7">
-        <v>0.004535837092594433</v>
-      </c>
-      <c r="T7">
-        <v>0.003651999851364904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.2700825</v>
-      </c>
-      <c r="H8">
-        <v>0.540165</v>
-      </c>
-      <c r="I8">
-        <v>0.3075947572252722</v>
-      </c>
-      <c r="J8">
-        <v>0.2284906836002685</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>61.06015933333333</v>
-      </c>
-      <c r="N8">
-        <v>183.180478</v>
-      </c>
-      <c r="O8">
-        <v>0.7434842087418319</v>
-      </c>
-      <c r="P8">
-        <v>0.8058523627949308</v>
-      </c>
-      <c r="Q8">
-        <v>16.491280483145</v>
-      </c>
-      <c r="R8">
-        <v>98.94768289887</v>
-      </c>
-      <c r="S8">
-        <v>0.2286918446887674</v>
-      </c>
-      <c r="T8">
-        <v>0.1841297572559053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.2700825</v>
-      </c>
-      <c r="H9">
-        <v>0.540165</v>
-      </c>
-      <c r="I9">
-        <v>0.3075947572252722</v>
-      </c>
-      <c r="J9">
-        <v>0.2284906836002685</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.132278</v>
-      </c>
-      <c r="N9">
-        <v>0.396834</v>
-      </c>
-      <c r="O9">
-        <v>0.001610650958623747</v>
-      </c>
-      <c r="P9">
-        <v>0.001745762539921768</v>
-      </c>
-      <c r="Q9">
-        <v>0.035725972935</v>
-      </c>
-      <c r="R9">
-        <v>0.21435583761</v>
-      </c>
-      <c r="S9">
-        <v>0.0004954277905925233</v>
-      </c>
-      <c r="T9">
-        <v>0.0003988904761504659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.2700825</v>
-      </c>
-      <c r="H10">
-        <v>0.540165</v>
-      </c>
-      <c r="I10">
-        <v>0.3075947572252722</v>
-      </c>
-      <c r="J10">
-        <v>0.2284906836002685</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>19.068426</v>
-      </c>
-      <c r="N10">
-        <v>38.136852</v>
-      </c>
-      <c r="O10">
-        <v>0.232182060632501</v>
-      </c>
-      <c r="P10">
-        <v>0.1677726394717705</v>
-      </c>
-      <c r="Q10">
-        <v>5.150048165145</v>
-      </c>
-      <c r="R10">
-        <v>20.60019266058</v>
-      </c>
-      <c r="S10">
-        <v>0.07141798457231759</v>
-      </c>
-      <c r="T10">
-        <v>0.03833448508232622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.2700825</v>
-      </c>
-      <c r="H11">
-        <v>0.540165</v>
-      </c>
-      <c r="I11">
-        <v>0.3075947572252722</v>
-      </c>
-      <c r="J11">
-        <v>0.2284906836002685</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.655122</v>
-      </c>
-      <c r="N11">
-        <v>1.965366</v>
-      </c>
-      <c r="O11">
-        <v>0.007976934012575832</v>
-      </c>
-      <c r="P11">
-        <v>0.008646089649666828</v>
-      </c>
-      <c r="Q11">
-        <v>0.176936987565</v>
-      </c>
-      <c r="R11">
-        <v>1.06162192539</v>
-      </c>
-      <c r="S11">
-        <v>0.00245366308100028</v>
-      </c>
-      <c r="T11">
-        <v>0.00197555093452158</v>
+        <v>0.001861626958316384</v>
       </c>
     </row>
   </sheetData>
